--- a/papers/troy/pstar/perf/performance.xlsx
+++ b/papers/troy/pstar/perf/performance.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="3820" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="File Transfer" sheetId="1" r:id="rId1"/>
     <sheet name="SubJob Throughput" sheetId="2" r:id="rId2"/>
+    <sheet name="TROY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Throughput (in MB/s)</t>
   </si>
@@ -51,6 +52,42 @@
   </si>
   <si>
     <t>Percent of GridFTP performance</t>
+  </si>
+  <si>
+    <t>Number of tasks</t>
+  </si>
+  <si>
+    <t>Number of threads per task</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>BJ-SAGA</t>
+  </si>
+  <si>
+    <t>BJ-Diane</t>
+  </si>
+  <si>
+    <t>BJ-SAGA, BJ-Diane</t>
+  </si>
+  <si>
+    <t>Number of cores</t>
   </si>
 </sst>
 </file>
@@ -58,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,8 +161,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,53 +198,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="26">
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="31">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="26" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -521,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -535,15 +602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1" t="s">
@@ -579,14 +646,14 @@
         <f>($A3/1024/1024)/(B3*24*60*60)</f>
         <v>11.606033611387623</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>9.6579861111111096E-4</v>
       </c>
       <c r="E3" s="3">
         <f>($A3/1024/1024)/(D3*24*60*60)</f>
         <v>13.704007258630369</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f>C3/E3</f>
         <v>0.84690801692902595</v>
       </c>
@@ -598,21 +665,21 @@
       <c r="A4">
         <v>1199079042</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1.0543634259259258E-3</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C7" si="0">($A4/1024/1024)/(B4*24*60*60)</f>
         <v>12.552892913009334</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>2.5984953703703706E-4</v>
       </c>
       <c r="E4" s="3">
         <f>($A4/1024/1024)/(D4*24*60*60)</f>
         <v>50.934518983404352</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F7" si="1">C4/E4</f>
         <v>0.24645158457468416</v>
       </c>
@@ -624,21 +691,21 @@
       <c r="A5">
         <v>1199079042</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>12.705898729960124</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>2.54537037037037E-4</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E7" si="2">($A5/1024/1024)/(D5*24*60*60)</f>
         <v>51.997584835231507</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>0.24435555555555552</v>
       </c>
@@ -650,21 +717,21 @@
       <c r="A6">
         <v>1199079042</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>9.5180555555555556E-4</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>13.905477962162692</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>1.7192129629629629E-4</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
         <v>76.984710225960086</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>0.18062648961525365</v>
       </c>
@@ -676,21 +743,21 @@
       <c r="A7">
         <v>1199079042</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>9.5292824074074073E-4</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>13.889095328682437</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.5527777777777778E-4</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>85.236351050716394</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>0.16294802812966852</v>
       </c>
@@ -728,4 +795,118 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="58" thickBot="1">
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16" thickTop="1">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/troy/pstar/perf/performance.xlsx
+++ b/papers/troy/pstar/perf/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="File Transfer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Throughput (in MB/s)</t>
   </si>
@@ -72,9 +72,6 @@
     <t>matching</t>
   </si>
   <si>
-    <t>TTC</t>
-  </si>
-  <si>
     <t>Backend</t>
   </si>
   <si>
@@ -88,6 +85,37 @@
   </si>
   <si>
     <t>Number of cores</t>
+  </si>
+  <si>
+    <t>TTC(only matching)</t>
+  </si>
+  <si>
+    <t>error with four workers per node</t>
+  </si>
+  <si>
+    <t>4, 4</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12m11.266s
+</t>
+  </si>
+  <si>
+    <t>8m17.946s</t>
+  </si>
+  <si>
+    <t>tasks/node</t>
+  </si>
+  <si>
+    <t>10m17.069s</t>
   </si>
 </sst>
 </file>
@@ -171,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -203,8 +231,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -216,17 +252,23 @@
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -241,6 +283,10 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="26" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -256,6 +302,10 @@
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -602,14 +652,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="45">
@@ -799,44 +849,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:H9"/>
+  <dimension ref="A6:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="58" thickBot="1">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="58" thickBot="1">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickTop="1">
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="16" thickTop="1">
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -857,9 +908,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -877,12 +928,15 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>941</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -898,6 +952,227 @@
       </c>
       <c r="G9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="58" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16" thickTop="1">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>529</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>542</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>545</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="58" thickBot="1">
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16" thickTop="1">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>494</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="45">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>485</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>521</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/papers/troy/pstar/perf/performance.xlsx
+++ b/papers/troy/pstar/perf/performance.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7420" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="File Transfer" sheetId="1" r:id="rId1"/>
     <sheet name="SubJob Throughput" sheetId="2" r:id="rId2"/>
     <sheet name="TROY" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>Throughput (in MB/s)</t>
   </si>
@@ -116,6 +117,57 @@
   </si>
   <si>
     <t>10m17.069s</t>
+  </si>
+  <si>
+    <t>Tasks/node</t>
+  </si>
+  <si>
+    <t>qwait time</t>
+  </si>
+  <si>
+    <t>louie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time diff between DARE launch and bfast job start </t>
+  </si>
+  <si>
+    <t>actual bfast run time</t>
+  </si>
+  <si>
+    <t>DARE all tasks run time</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>~90</t>
+  </si>
+  <si>
+    <t>~420</t>
+  </si>
+  <si>
+    <t>~30</t>
+  </si>
+  <si>
+    <t>~80</t>
+  </si>
+  <si>
+    <t>~10</t>
+  </si>
+  <si>
+    <t>Qwait time for one diane agent was different</t>
+  </si>
+  <si>
+    <t>~120</t>
+  </si>
+  <si>
+    <t>~480</t>
+  </si>
+  <si>
+    <t>~60</t>
+  </si>
+  <si>
+    <t>~150</t>
   </si>
 </sst>
 </file>
@@ -125,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +224,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -239,8 +298,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -255,20 +352,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -287,6 +388,25 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="26" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -306,6 +426,25 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -652,14 +791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="45">
@@ -851,15 +990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="58" thickBot="1">
@@ -977,7 +1117,7 @@
       <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1081,10 +1221,10 @@
       <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1117,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="45">
+    <row r="27" spans="2:11" ht="30">
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1279,7 @@
       <c r="H27">
         <v>485</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K27">
@@ -1173,6 +1313,472 @@
       </c>
       <c r="K28">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="32.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="77" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickTop="1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>509.3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>513.12900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>620</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>641.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>592</v>
+      </c>
+      <c r="L6" s="9">
+        <v>612.11800000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>564</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>565.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <v>591.10699999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>8</v>
+      </c>
+      <c r="C18" s="13">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>544.6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>547.95100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>650</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19">
+        <v>671.31399999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>478.8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>916</v>
+      </c>
+      <c r="L30" s="9">
+        <v>936.49199999999996</v>
+      </c>
+      <c r="N30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/papers/troy/pstar/perf/performance.xlsx
+++ b/papers/troy/pstar/perf/performance.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="File Transfer" sheetId="1" r:id="rId1"/>
     <sheet name="SubJob Throughput" sheetId="2" r:id="rId2"/>
     <sheet name="TROY" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet-louie" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet_oliver" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>Throughput (in MB/s)</t>
   </si>
@@ -168,6 +169,48 @@
   </si>
   <si>
     <t>~150</t>
+  </si>
+  <si>
+    <t>qwait time, bj-agent startup, co-ordination</t>
+  </si>
+  <si>
+    <t>DARE-start time</t>
+  </si>
+  <si>
+    <t>bfast kernel start time</t>
+  </si>
+  <si>
+    <t>all times in sec</t>
+  </si>
+  <si>
+    <t>Number of cores(Nodes)</t>
+  </si>
+  <si>
+    <t>16(4)</t>
+  </si>
+  <si>
+    <t>earliest</t>
+  </si>
+  <si>
+    <t>bfast kernel endtime</t>
+  </si>
+  <si>
+    <t>AVG times</t>
+  </si>
+  <si>
+    <t>std-dev Column H</t>
+  </si>
+  <si>
+    <t>std-dev Column J</t>
+  </si>
+  <si>
+    <t>std-dev Column L</t>
+  </si>
+  <si>
+    <t>std-dev Column N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time diff between DARE launch and first bfast job start </t>
   </si>
 </sst>
 </file>
@@ -177,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +274,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,8 +316,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,8 +404,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -361,15 +492,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="77" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="140">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -407,7 +548,39 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="26" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="77" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -445,6 +618,37 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -791,14 +995,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="45">
@@ -1330,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1578,28 +1782,28 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="13">
-        <v>16</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="11">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13">
-        <v>2</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="F18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2</v>
+      </c>
+      <c r="H18" s="11">
         <v>544.6</v>
       </c>
       <c r="J18" t="s">
@@ -1613,25 +1817,25 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>8</v>
       </c>
-      <c r="C19" s="13">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="11">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11">
         <v>2</v>
       </c>
       <c r="H19">
@@ -1645,25 +1849,25 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="11">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1779,6 +1983,801 @@
       </c>
       <c r="N30" t="s">
         <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="38">
+      <c r="I3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="58" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="50" thickTop="1" thickBot="1">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>499.3</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>467</v>
+      </c>
+      <c r="K5" s="9">
+        <v>502.79199999999997</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16" thickTop="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>494.2</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>466</v>
+      </c>
+      <c r="K6" s="9">
+        <v>497.8</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.52023148148148146</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.52052083333333332</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.52592592592592591</v>
+      </c>
+      <c r="P6" s="12">
+        <f>(O6-N6)</f>
+        <v>5.4050925925925863E-3</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>N6-M6</f>
+        <v>2.8935185185186008E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>499.2</v>
+      </c>
+      <c r="I7">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>465</v>
+      </c>
+      <c r="K7" s="9">
+        <v>502.87200000000001</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.52681712962962968</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.52704861111111112</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.53244212962962967</v>
+      </c>
+      <c r="P7" s="12">
+        <f>O7-N7</f>
+        <v>5.3935185185185475E-3</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>N7-M7</f>
+        <v>2.3148148148144365E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="M8" s="12">
+        <v>0.53660879629629632</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.53708333333333336</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0.54246527777777775</v>
+      </c>
+      <c r="P8" s="12">
+        <f>O8-N8</f>
+        <v>5.3819444444443976E-3</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>N8-M8</f>
+        <v>4.745370370370372E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>655.7</v>
+      </c>
+      <c r="I12">
+        <v>170</v>
+      </c>
+      <c r="J12">
+        <v>493</v>
+      </c>
+      <c r="K12">
+        <v>681.33100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>710</v>
+      </c>
+      <c r="I13">
+        <v>203</v>
+      </c>
+      <c r="J13">
+        <v>487</v>
+      </c>
+      <c r="K13">
+        <v>736.34</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.54770833333333335</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.54967592592592596</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.55538194444444444</v>
+      </c>
+      <c r="P13" s="12">
+        <f>O13-N13</f>
+        <v>5.7060185185184853E-3</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>N13-M13</f>
+        <v>1.9675925925926041E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>680</v>
+      </c>
+      <c r="I14">
+        <v>160</v>
+      </c>
+      <c r="J14">
+        <v>470</v>
+      </c>
+      <c r="K14">
+        <v>706.31500000000005</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.56018518518518523</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.56253472222222223</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.56817129629629626</v>
+      </c>
+      <c r="P14" s="12">
+        <f>O14-N14</f>
+        <v>5.63657407407403E-3</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>N14-M14</f>
+        <v>2.3495370370369972E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="M15" s="12">
+        <v>0.57052083333333337</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.57237268518518525</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.57781249999999995</v>
+      </c>
+      <c r="P15" s="12">
+        <f>O15-N15</f>
+        <v>5.439814814814703E-3</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>N15-M15</f>
+        <v>1.8518518518518823E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>653.1</v>
+      </c>
+      <c r="I19">
+        <v>98</v>
+      </c>
+      <c r="J19">
+        <v>463</v>
+      </c>
+      <c r="K19" s="9">
+        <v>672.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>648.16999999999996</v>
+      </c>
+      <c r="I20">
+        <v>67</v>
+      </c>
+      <c r="J20">
+        <v>466</v>
+      </c>
+      <c r="K20" s="9">
+        <v>667.07899999999995</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.58054398148148145</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.5816782407407407</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.58703703703703702</v>
+      </c>
+      <c r="P20" s="12">
+        <f>O20-N20</f>
+        <v>5.3587962962963198E-3</v>
+      </c>
+      <c r="Q20" s="12">
+        <f>N20-M20</f>
+        <v>1.1342592592592515E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="I21">
+        <v>55</v>
+      </c>
+      <c r="J21">
+        <v>457</v>
+      </c>
+      <c r="K21" s="9">
+        <v>647.07799999999997</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.58983796296296298</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.59061342592592592</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.59600694444444446</v>
+      </c>
+      <c r="P21" s="12">
+        <f>O21-N21</f>
+        <v>5.3935185185185475E-3</v>
+      </c>
+      <c r="Q21" s="12">
+        <f>N21-M21</f>
+        <v>7.7546296296293615E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="M22" s="12">
+        <v>0.59912037037037036</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.5997569444444445</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0.60504629629629625</v>
+      </c>
+      <c r="P22" s="12">
+        <f>O22-N22</f>
+        <v>5.2893518518517535E-3</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>N22-M22</f>
+        <v>6.3657407407413658E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="38">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" ht="58" thickBot="1">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" thickTop="1">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(H5,H6,H7)</f>
+        <v>497.56666666666666</v>
+      </c>
+      <c r="I32">
+        <f>STDEV(H5,H6,H7)</f>
+        <v>2.9160475533388293</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(I5,I6,I7)</f>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="K32">
+        <f>STDEV(I5,I6,I7)</f>
+        <v>10.969655114602887</v>
+      </c>
+      <c r="L32" s="9">
+        <f>AVERAGE(J5,J6,J7)</f>
+        <v>466</v>
+      </c>
+      <c r="M32">
+        <f>STDEV(J5,J6,J7)</f>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGE(K5,K6,K7)</f>
+        <v>501.15466666666663</v>
+      </c>
+      <c r="O32">
+        <f>STDEV(K5,K6,K7)</f>
+        <v>2.9055019073016068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(H12,H13,H14)</f>
+        <v>681.9</v>
+      </c>
+      <c r="I33">
+        <f>STDEV(H12,H13,H14)</f>
+        <v>27.199816175849403</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(I12,I13,I14)</f>
+        <v>177.66666666666666</v>
+      </c>
+      <c r="K33">
+        <f>STDEV(I12,I13,I14)</f>
+        <v>22.501851775650284</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE(J12,J13,J14)</f>
+        <v>483.33333333333331</v>
+      </c>
+      <c r="M33">
+        <f>STDEV(J12,J13,J14)</f>
+        <v>11.930353445448853</v>
+      </c>
+      <c r="N33">
+        <f>AVERAGE(K12,K13,K14)</f>
+        <v>707.99533333333329</v>
+      </c>
+      <c r="O33">
+        <f>STDEV(K12,K13,K14)</f>
+        <v>27.542969344886068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H19,H20,H21)</f>
+        <v>639.68999999999994</v>
+      </c>
+      <c r="I34">
+        <f>STDEV(H19,H20,H21)</f>
+        <v>19.116885206539294</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(I19,I20,I21)</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="K34">
+        <f>STDEV(I19,I20,I21)</f>
+        <v>22.188585654190152</v>
+      </c>
+      <c r="L34" s="9">
+        <f>AVERAGE(J19,J20,J21)</f>
+        <v>462</v>
+      </c>
+      <c r="M34">
+        <f>STDEV(J19,J20,J21)</f>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="N34">
+        <f>AVERAGE(K19,K20,K21)</f>
+        <v>662.11900000000003</v>
+      </c>
+      <c r="O34">
+        <f>STDEV(K19,K20,K21)</f>
+        <v>13.275161806923506</v>
       </c>
     </row>
   </sheetData>

--- a/papers/troy/pstar/perf/performance.xlsx
+++ b/papers/troy/pstar/perf/performance.xlsx
@@ -655,6 +655,685 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>startup times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34644722895215"/>
+          <c:y val="0.114649681528662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>startup time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$J$32:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>stddev</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$K$32:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.96965511460289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.50185177565028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.18858565419015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="639811896"/>
+        <c:axId val="639805176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="639811896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="639805176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639805176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="639811896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>total time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$N$32:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>501.1546666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707.9953333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>662.119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>std dev</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$O$32:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.905501907301607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.54296934488607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.27516180692351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="650536648"/>
+        <c:axId val="650545816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650536648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650545816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650545816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650536648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bfast kernel</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bfast kernel runtimes</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$L$32:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>std dev</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_oliver!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BJ-SAGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BJ-Diane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BJ-SAGA, BJ-Diane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_oliver!$M$32:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.93035344544885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.58257569495584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="668151832"/>
+        <c:axId val="652448952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="668151832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="652448952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="652448952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="668151832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2001,7 +2680,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2783,6 +3462,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
